--- a/Code/Results/Cases/Case_6_62/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_62/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.24908026884128</v>
+        <v>21.49965929447017</v>
       </c>
       <c r="C2">
-        <v>12.96629283058857</v>
+        <v>13.57604975894404</v>
       </c>
       <c r="D2">
-        <v>5.245350786324787</v>
+        <v>4.60506438754043</v>
       </c>
       <c r="E2">
-        <v>7.230177595350004</v>
+        <v>7.583218135185748</v>
       </c>
       <c r="F2">
-        <v>37.63099555598767</v>
+        <v>19.54402506745655</v>
       </c>
       <c r="G2">
-        <v>2.098233679263535</v>
+        <v>2.083514648333634</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.176611535621601</v>
+        <v>6.157698987372641</v>
       </c>
       <c r="M2">
-        <v>12.545756752879</v>
+        <v>12.40033116979529</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>29.98357152373375</v>
+        <v>15.62726385974822</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.7420544235883</v>
+        <v>20.05177155487953</v>
       </c>
       <c r="C3">
-        <v>12.24217041212344</v>
+        <v>13.07176285626978</v>
       </c>
       <c r="D3">
-        <v>5.313588432021874</v>
+        <v>4.506602973181676</v>
       </c>
       <c r="E3">
-        <v>7.256251196946438</v>
+        <v>7.726126263583195</v>
       </c>
       <c r="F3">
-        <v>36.07860910495157</v>
+        <v>19.14498772622047</v>
       </c>
       <c r="G3">
-        <v>2.108946421564697</v>
+        <v>2.089511460105757</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.104575259696376</v>
+        <v>6.076721236789307</v>
       </c>
       <c r="M3">
-        <v>12.01061004618837</v>
+        <v>11.78688737691847</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>28.94088395455608</v>
+        <v>15.56740828795638</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.83319851250449</v>
+        <v>19.11044934322092</v>
       </c>
       <c r="C4">
-        <v>11.77826681095386</v>
+        <v>12.75278085457296</v>
       </c>
       <c r="D4">
-        <v>5.356832007735288</v>
+        <v>4.445121696070368</v>
       </c>
       <c r="E4">
-        <v>7.273094975648993</v>
+        <v>7.816543729005683</v>
       </c>
       <c r="F4">
-        <v>35.12973557540652</v>
+        <v>18.9211155218403</v>
       </c>
       <c r="G4">
-        <v>2.115673049505377</v>
+        <v>2.093303638821807</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.063470808112262</v>
+        <v>6.029381725701927</v>
       </c>
       <c r="M4">
-        <v>11.67957524662327</v>
+        <v>11.39752200703372</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>28.31117889838843</v>
+        <v>15.55057641422984</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.46482032144321</v>
+        <v>18.71361181470772</v>
       </c>
       <c r="C5">
-        <v>11.58437614541839</v>
+        <v>12.62057235089175</v>
       </c>
       <c r="D5">
-        <v>5.374785659862813</v>
+        <v>4.419829809758706</v>
       </c>
       <c r="E5">
-        <v>7.280164164292484</v>
+        <v>7.854075004275908</v>
       </c>
       <c r="F5">
-        <v>34.74447106347365</v>
+        <v>18.83517163687</v>
       </c>
       <c r="G5">
-        <v>2.118454217376542</v>
+        <v>2.094877441794666</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.047493028524868</v>
+        <v>6.010694925658743</v>
       </c>
       <c r="M5">
-        <v>11.54422051421228</v>
+        <v>11.2358320802202</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>28.05735898855484</v>
+        <v>15.54851562013188</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.40313810879344</v>
+        <v>18.64691502579828</v>
       </c>
       <c r="C6">
-        <v>11.55188862156297</v>
+        <v>12.59848922565765</v>
       </c>
       <c r="D6">
-        <v>5.37778670646495</v>
+        <v>4.415616362907639</v>
       </c>
       <c r="E6">
-        <v>7.281350268643215</v>
+        <v>7.860348833004293</v>
       </c>
       <c r="F6">
-        <v>34.68059394601038</v>
+        <v>18.82121863775123</v>
       </c>
       <c r="G6">
-        <v>2.118918515871186</v>
+        <v>2.095140511293207</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.044886196033262</v>
+        <v>6.007628647786188</v>
       </c>
       <c r="M6">
-        <v>11.52172266739093</v>
+        <v>11.20880691087643</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>28.01538558753332</v>
+        <v>15.548456923585</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.82826496143285</v>
+        <v>19.10515117953907</v>
       </c>
       <c r="C7">
-        <v>11.77567153342257</v>
+        <v>12.75100665231501</v>
       </c>
       <c r="D7">
-        <v>5.357072802339748</v>
+        <v>4.444781536065558</v>
       </c>
       <c r="E7">
-        <v>7.273189487951402</v>
+        <v>7.817047095874534</v>
       </c>
       <c r="F7">
-        <v>35.12453358353154</v>
+        <v>18.91993510691531</v>
       </c>
       <c r="G7">
-        <v>2.115710392060826</v>
+        <v>2.09332474745462</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.063252215831785</v>
+        <v>6.02912725492388</v>
       </c>
       <c r="M7">
-        <v>11.67775141731734</v>
+        <v>11.39535337478971</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>28.30774428786436</v>
+        <v>15.55052947750363</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.73901895087317</v>
+        <v>21.01123244443219</v>
       </c>
       <c r="C8">
-        <v>12.72061446208103</v>
+        <v>13.40418447436587</v>
       </c>
       <c r="D8">
-        <v>5.268595306795093</v>
+        <v>4.571339419090523</v>
       </c>
       <c r="E8">
-        <v>7.238991589082485</v>
+        <v>7.631946857647345</v>
       </c>
       <c r="F8">
-        <v>37.09501923789924</v>
+        <v>19.4020390397106</v>
       </c>
       <c r="G8">
-        <v>2.101898117999867</v>
+        <v>2.08555997173804</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.151116502855258</v>
+        <v>6.129287340083745</v>
       </c>
       <c r="M8">
-        <v>12.3618359054265</v>
+        <v>12.19154896052192</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>29.62195252319417</v>
+        <v>15.60236731699623</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.24840221250312</v>
+        <v>24.33798375606246</v>
       </c>
       <c r="C9">
-        <v>14.42161349156957</v>
+        <v>14.60604325787349</v>
       </c>
       <c r="D9">
-        <v>5.106168534311117</v>
+        <v>4.810568794964444</v>
       </c>
       <c r="E9">
-        <v>7.178796893869323</v>
+        <v>7.289510859219317</v>
       </c>
       <c r="F9">
-        <v>40.98228143222678</v>
+        <v>20.51542559498155</v>
       </c>
       <c r="G9">
-        <v>2.075867296138774</v>
+        <v>2.071169955179964</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.348846042003983</v>
+        <v>6.344311674071281</v>
       </c>
       <c r="M9">
-        <v>13.67819235703681</v>
+        <v>13.74001302182881</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>32.2776259041629</v>
+        <v>15.87097881132801</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.61691728309378</v>
+        <v>26.53728613236465</v>
       </c>
       <c r="C10">
-        <v>15.58173007524771</v>
+        <v>15.43552244284445</v>
       </c>
       <c r="D10">
-        <v>4.994340410049955</v>
+        <v>4.979895324094706</v>
       </c>
       <c r="E10">
-        <v>7.139172149388941</v>
+        <v>7.049495974778436</v>
       </c>
       <c r="F10">
-        <v>43.84358430295558</v>
+        <v>21.4350900409591</v>
       </c>
       <c r="G10">
-        <v>2.057188506902025</v>
+        <v>2.061052674693666</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.510559283845166</v>
+        <v>6.513238274821223</v>
       </c>
       <c r="M10">
-        <v>14.97963995039066</v>
+        <v>14.92447690986418</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>34.27328308679295</v>
+        <v>16.1814159056692</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.6517466633294</v>
+        <v>27.48593167014059</v>
       </c>
       <c r="C11">
-        <v>16.09116123897091</v>
+        <v>15.80041993401798</v>
       </c>
       <c r="D11">
-        <v>4.945338851939004</v>
+        <v>5.055353866154072</v>
       </c>
       <c r="E11">
-        <v>7.122263045906292</v>
+        <v>6.942599386835995</v>
       </c>
       <c r="F11">
-        <v>45.14641667469983</v>
+        <v>21.87516846922729</v>
       </c>
       <c r="G11">
-        <v>2.048737515926571</v>
+        <v>2.056535756722165</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>6.587936182469766</v>
+        <v>6.592379743105953</v>
       </c>
       <c r="M11">
-        <v>15.54941238190992</v>
+        <v>15.43676176005431</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>35.19122088145038</v>
+        <v>16.34934583629125</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.03775925084014</v>
+        <v>27.83781556952202</v>
       </c>
       <c r="C12">
-        <v>16.2815590567036</v>
+        <v>15.9367569087564</v>
       </c>
       <c r="D12">
-        <v>4.927079660940547</v>
+        <v>5.083689927627874</v>
       </c>
       <c r="E12">
-        <v>7.116033030458804</v>
+        <v>6.902430402571573</v>
       </c>
       <c r="F12">
-        <v>45.64007028757778</v>
+        <v>22.0448998973368</v>
       </c>
       <c r="G12">
-        <v>2.045539157515646</v>
+        <v>2.054836442362943</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>6.61780839438101</v>
+        <v>6.622671844608047</v>
       </c>
       <c r="M12">
-        <v>15.76189778488892</v>
+        <v>15.62698210791728</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>35.54038966566747</v>
+        <v>16.41693432769046</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.95488017606526</v>
+        <v>27.76235613803341</v>
       </c>
       <c r="C13">
-        <v>16.24066303961887</v>
+        <v>15.90747693428475</v>
       </c>
       <c r="D13">
-        <v>4.930998393992196</v>
+        <v>5.077598041070084</v>
       </c>
       <c r="E13">
-        <v>7.117366850635334</v>
+        <v>6.911068010125295</v>
       </c>
       <c r="F13">
-        <v>45.53373664840413</v>
+        <v>22.00820866518118</v>
       </c>
       <c r="G13">
-        <v>2.046227981802546</v>
+        <v>2.055201943680143</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>6.611349061151661</v>
+        <v>6.616133640489352</v>
       </c>
       <c r="M13">
-        <v>15.71627816337244</v>
+        <v>15.5861816902848</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>35.4651176668847</v>
+        <v>16.40219782068821</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.6836197922547</v>
+        <v>27.51502800823284</v>
       </c>
       <c r="C14">
-        <v>16.10687495886928</v>
+        <v>15.81167363286087</v>
       </c>
       <c r="D14">
-        <v>4.943830528317604</v>
+        <v>5.057689937321289</v>
       </c>
       <c r="E14">
-        <v>7.121746948939355</v>
+        <v>6.939288548096003</v>
       </c>
       <c r="F14">
-        <v>45.18702274147753</v>
+        <v>21.88907079907775</v>
       </c>
       <c r="G14">
-        <v>2.048474377598137</v>
+        <v>2.056395736642851</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>6.590382191920101</v>
+        <v>6.594865458303928</v>
       </c>
       <c r="M14">
-        <v>15.56695833827725</v>
+        <v>15.45248659971074</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>35.2199149095242</v>
+        <v>16.35482542778033</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.51671124940497</v>
+        <v>27.36257871390348</v>
       </c>
       <c r="C15">
-        <v>16.02460268020491</v>
+        <v>15.75275011706732</v>
       </c>
       <c r="D15">
-        <v>4.951730154339931</v>
+        <v>5.045464243901934</v>
       </c>
       <c r="E15">
-        <v>7.124452842384294</v>
+        <v>6.956614305028657</v>
       </c>
       <c r="F15">
-        <v>44.97469505400205</v>
+        <v>21.81649581942961</v>
       </c>
       <c r="G15">
-        <v>2.049850448236813</v>
+        <v>2.057128385084596</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>6.577614526564236</v>
+        <v>6.581879940795497</v>
       </c>
       <c r="M15">
-        <v>15.47507418921601</v>
+        <v>15.3701048457737</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>35.0699296890169</v>
+        <v>16.32633341250098</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.54845372504188</v>
+        <v>26.4742558992736</v>
       </c>
       <c r="C16">
-        <v>15.54807879728405</v>
+        <v>15.41142042371402</v>
       </c>
       <c r="D16">
-        <v>4.997582621350432</v>
+        <v>4.974931223206775</v>
       </c>
       <c r="E16">
-        <v>7.140300682973567</v>
+        <v>7.056526387319723</v>
       </c>
       <c r="F16">
-        <v>43.75847369752173</v>
+        <v>21.40676345671094</v>
       </c>
       <c r="G16">
-        <v>2.0577413316479</v>
+        <v>2.061349489872609</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>6.505581118779265</v>
+        <v>6.508111758600174</v>
       </c>
       <c r="M16">
-        <v>14.94193655862576</v>
+        <v>14.89046766089495</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>34.21350493147156</v>
+        <v>16.17099242688611</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.9437268652006</v>
+        <v>25.91609773588369</v>
       </c>
       <c r="C17">
-        <v>15.25113459967894</v>
+        <v>15.19879836413912</v>
       </c>
       <c r="D17">
-        <v>5.02620818676144</v>
+        <v>4.931249979256138</v>
       </c>
       <c r="E17">
-        <v>7.150316954761012</v>
+        <v>7.11839220998384</v>
       </c>
       <c r="F17">
-        <v>43.01272601275912</v>
+        <v>21.16093969000553</v>
       </c>
       <c r="G17">
-        <v>2.062590723254502</v>
+        <v>2.063960105252743</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.462382636008178</v>
+        <v>6.463440031245092</v>
       </c>
       <c r="M17">
-        <v>14.60886373421615</v>
+        <v>14.58945993120401</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>33.69076068588165</v>
+        <v>16.08265234631177</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.59187394785836</v>
+        <v>25.59017506856562</v>
       </c>
       <c r="C18">
-        <v>15.07860786469444</v>
+        <v>15.07533553867985</v>
       </c>
       <c r="D18">
-        <v>5.042846807492876</v>
+        <v>4.905978667227492</v>
       </c>
       <c r="E18">
-        <v>7.156182248137751</v>
+        <v>7.154192257048958</v>
       </c>
       <c r="F18">
-        <v>42.58389165131643</v>
+        <v>21.02159505396094</v>
       </c>
       <c r="G18">
-        <v>2.06538462211391</v>
+        <v>2.065469781927927</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.437893302446779</v>
+        <v>6.43796253048155</v>
       </c>
       <c r="M18">
-        <v>14.41502986224083</v>
+        <v>14.41382773822276</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>33.39103192176115</v>
+        <v>16.0343471338095</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.47204266598689</v>
+        <v>25.47898113821027</v>
       </c>
       <c r="C19">
-        <v>15.01989249220748</v>
+        <v>15.03333433394266</v>
       </c>
       <c r="D19">
-        <v>5.048509495871718</v>
+        <v>4.897397404241725</v>
       </c>
       <c r="E19">
-        <v>7.158185687530139</v>
+        <v>7.16635126340716</v>
       </c>
       <c r="F19">
-        <v>42.4387108545003</v>
+        <v>20.9747681205296</v>
       </c>
       <c r="G19">
-        <v>2.066331524000555</v>
+        <v>2.065982360679331</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.429662362707449</v>
+        <v>6.429373702406936</v>
       </c>
       <c r="M19">
-        <v>14.34900842386678</v>
+        <v>14.35393095821885</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>33.28970811709293</v>
+        <v>16.01841719086046</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.00851629319171</v>
+        <v>25.97601944032919</v>
       </c>
       <c r="C20">
-        <v>15.28292330883714</v>
+        <v>15.22155368024997</v>
       </c>
       <c r="D20">
-        <v>5.023142763107611</v>
+        <v>4.93591523625794</v>
       </c>
       <c r="E20">
-        <v>7.149239837991193</v>
+        <v>7.111784215460531</v>
       </c>
       <c r="F20">
-        <v>43.09210122382603</v>
+        <v>21.18689652110768</v>
       </c>
       <c r="G20">
-        <v>2.062074047939608</v>
+        <v>2.063681368468215</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.466944056090767</v>
+        <v>6.468173061313605</v>
       </c>
       <c r="M20">
-        <v>14.64455261767238</v>
+        <v>14.62176120437829</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>33.74630984914597</v>
+        <v>16.091795798265</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.76345207716896</v>
+        <v>27.58787282577076</v>
       </c>
       <c r="C21">
-        <v>16.14623886768303</v>
+        <v>15.83986373435802</v>
       </c>
       <c r="D21">
-        <v>4.94005311275888</v>
+        <v>5.063543995249929</v>
       </c>
       <c r="E21">
-        <v>7.120455597744904</v>
+        <v>6.930991219060284</v>
       </c>
       <c r="F21">
-        <v>45.28885134532229</v>
+        <v>21.92398110035758</v>
       </c>
       <c r="G21">
-        <v>2.047814547708441</v>
+        <v>2.05604479783769</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>6.596524961947671</v>
+        <v>6.60110372729354</v>
       </c>
       <c r="M21">
-        <v>15.6109047071523</v>
+        <v>15.49185804392608</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>35.29189313097179</v>
+        <v>16.36863019007918</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.87643184215202</v>
+        <v>28.59853697323382</v>
       </c>
       <c r="C22">
-        <v>16.69589427654362</v>
+        <v>16.23321359306129</v>
       </c>
       <c r="D22">
-        <v>4.887496453854757</v>
+        <v>5.145562160594182</v>
       </c>
       <c r="E22">
-        <v>7.10266007730697</v>
+        <v>6.814632712926445</v>
       </c>
       <c r="F22">
-        <v>46.726438924634</v>
+        <v>22.42366514367916</v>
       </c>
       <c r="G22">
-        <v>2.03850322771869</v>
+        <v>2.051118218682642</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>6.684557195961556</v>
+        <v>6.689861348492538</v>
       </c>
       <c r="M22">
-        <v>16.22347015202785</v>
+        <v>16.03856204635435</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>36.31125633527764</v>
+        <v>16.57291874904782</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.28542180531906</v>
+        <v>28.06300448959131</v>
       </c>
       <c r="C23">
-        <v>16.40381948883851</v>
+        <v>16.02427360170736</v>
       </c>
       <c r="D23">
-        <v>4.915375986563081</v>
+        <v>5.101918924016583</v>
       </c>
       <c r="E23">
-        <v>7.112060036783154</v>
+        <v>6.876577083389574</v>
       </c>
       <c r="F23">
-        <v>45.95892800564503</v>
+        <v>22.15534339818449</v>
       </c>
       <c r="G23">
-        <v>2.043473860981476</v>
+        <v>2.053742140157356</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>6.637258059434821</v>
+        <v>6.642319868312851</v>
       </c>
       <c r="M23">
-        <v>15.89821325572593</v>
+        <v>15.74876850205812</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>35.76630023642916</v>
+        <v>16.46170033517159</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.97923805580721</v>
+        <v>25.94894451331079</v>
       </c>
       <c r="C24">
-        <v>15.26855727856705</v>
+        <v>15.21126980879552</v>
       </c>
       <c r="D24">
-        <v>5.02452807812932</v>
+        <v>4.933806565901032</v>
       </c>
       <c r="E24">
-        <v>7.149726470719352</v>
+        <v>7.114770964019961</v>
       </c>
       <c r="F24">
-        <v>43.05621599194103</v>
+        <v>21.17515525892254</v>
       </c>
       <c r="G24">
-        <v>2.062307618060386</v>
+        <v>2.063807357875648</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.464880761882891</v>
+        <v>6.466032619733446</v>
       </c>
       <c r="M24">
-        <v>14.62842499219038</v>
+        <v>14.60716583460568</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>33.72119357607122</v>
+        <v>16.08765432263524</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.33675025754158</v>
+        <v>23.48143549836461</v>
       </c>
       <c r="C25">
-        <v>13.97748823887906</v>
+        <v>14.28997938015327</v>
       </c>
       <c r="D25">
-        <v>5.148857832655699</v>
+        <v>4.746916045124864</v>
       </c>
       <c r="E25">
-        <v>7.194307824111763</v>
+        <v>7.380044991581197</v>
       </c>
       <c r="F25">
-        <v>39.92941494992064</v>
+        <v>20.19626487755095</v>
       </c>
       <c r="G25">
-        <v>2.082815447385546</v>
+        <v>2.074978727128712</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.292540346876057</v>
+        <v>6.284189360212595</v>
       </c>
       <c r="M25">
-        <v>13.3254481136018</v>
+        <v>13.28002936104458</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>31.55130761819346</v>
+        <v>15.77922304167477</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_62/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_62/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1211 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.49965929447017</v>
+        <v>21.51141496971126</v>
       </c>
       <c r="C2">
-        <v>13.57604975894404</v>
+        <v>15.07735361026428</v>
       </c>
       <c r="D2">
-        <v>4.60506438754043</v>
+        <v>5.096552902884875</v>
       </c>
       <c r="E2">
-        <v>7.583218135185748</v>
+        <v>7.968386619724624</v>
       </c>
       <c r="F2">
-        <v>19.54402506745655</v>
+        <v>15.50839609202711</v>
       </c>
       <c r="G2">
-        <v>2.083514648333634</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>18.17118152365572</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.555864882171957</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>7.877227689943288</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>12.46300732540428</v>
       </c>
       <c r="L2">
-        <v>6.157698987372641</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>12.40033116979529</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.14061477019609</v>
       </c>
       <c r="O2">
-        <v>15.62726385974822</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>12.40695711561156</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>12.36514158209004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.05177155487953</v>
+        <v>20.11530548247314</v>
       </c>
       <c r="C3">
-        <v>13.07176285626978</v>
+        <v>14.50379219497535</v>
       </c>
       <c r="D3">
-        <v>4.506602973181676</v>
+        <v>4.878301598670746</v>
       </c>
       <c r="E3">
-        <v>7.726126263583195</v>
+        <v>8.101162279256252</v>
       </c>
       <c r="F3">
-        <v>19.14498772622047</v>
+        <v>15.25887322742342</v>
       </c>
       <c r="G3">
-        <v>2.089511460105757</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
+        <v>17.9060033005509</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.55627515075088</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>7.946890655321767</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>12.75275427979473</v>
       </c>
       <c r="L3">
-        <v>6.076721236789307</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>11.78688737691847</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.061902988341581</v>
       </c>
       <c r="O3">
-        <v>15.56740828795638</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>11.76261472455061</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>12.40288542249104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.11044934322092</v>
+        <v>19.20624567120976</v>
       </c>
       <c r="C4">
-        <v>12.75278085457296</v>
+        <v>14.14280016944316</v>
       </c>
       <c r="D4">
-        <v>4.445121696070368</v>
+        <v>4.739262694332843</v>
       </c>
       <c r="E4">
-        <v>7.816543729005683</v>
+        <v>8.185246469400818</v>
       </c>
       <c r="F4">
-        <v>18.9211155218403</v>
+        <v>15.11678405714731</v>
       </c>
       <c r="G4">
-        <v>2.093303638821807</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
+        <v>17.76179061652768</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.665796408692314</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>7.993989624768074</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>12.93676525716182</v>
       </c>
       <c r="L4">
-        <v>6.029381725701927</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>11.39752200703372</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.016423867868933</v>
       </c>
       <c r="O4">
-        <v>15.55057641422984</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>11.35000958669192</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>12.43601515512979</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.71361181470772</v>
+        <v>18.82243527014704</v>
       </c>
       <c r="C5">
-        <v>12.62057235089175</v>
+        <v>14.00265756553524</v>
       </c>
       <c r="D5">
-        <v>4.419829809758706</v>
+        <v>4.682988687883967</v>
       </c>
       <c r="E5">
-        <v>7.854075004275908</v>
+        <v>8.219704516442565</v>
       </c>
       <c r="F5">
-        <v>18.83517163687</v>
+        <v>15.05431725943475</v>
       </c>
       <c r="G5">
-        <v>2.094877441794666</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
+        <v>17.6944218321035</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.714599467451912</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>8.012257024898879</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>13.00947899282315</v>
       </c>
       <c r="L5">
-        <v>6.010694925658743</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>11.2358320802202</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>5.999268465223796</v>
       </c>
       <c r="O5">
-        <v>15.54851562013188</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>11.17837478915837</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>12.44676059941736</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.64691502579828</v>
+        <v>18.75754721269553</v>
       </c>
       <c r="C6">
-        <v>12.59848922565765</v>
+        <v>13.9903514705086</v>
       </c>
       <c r="D6">
-        <v>4.415616362907639</v>
+        <v>4.675539832319937</v>
       </c>
       <c r="E6">
-        <v>7.860348833004293</v>
+        <v>8.224909961281826</v>
       </c>
       <c r="F6">
-        <v>18.82121863775123</v>
+        <v>15.03510398766409</v>
       </c>
       <c r="G6">
-        <v>2.095140511293207</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
+        <v>17.66736409539112</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2.72667137478658</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>8.012935259012719</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>13.0170226743602</v>
       </c>
       <c r="L6">
-        <v>6.007628647786188</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>11.20880691087643</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>5.997263036631838</v>
       </c>
       <c r="O6">
-        <v>15.548456923585</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>11.15038737113832</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>12.44238459885125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.10515117953907</v>
+        <v>19.20014638917414</v>
       </c>
       <c r="C7">
-        <v>12.75100665231501</v>
+        <v>14.17090122530375</v>
       </c>
       <c r="D7">
-        <v>4.444781536065558</v>
+        <v>4.743819817588679</v>
       </c>
       <c r="E7">
-        <v>7.817047095874534</v>
+        <v>8.184224476171881</v>
       </c>
       <c r="F7">
-        <v>18.91993510691531</v>
+        <v>15.09145484767518</v>
       </c>
       <c r="G7">
-        <v>2.09332474745462</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
+        <v>17.71696081982063</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.676794659248825</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>7.98762700546277</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>12.92509109998238</v>
       </c>
       <c r="L7">
-        <v>6.02912725492388</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>11.39535337478971</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.018361870217693</v>
       </c>
       <c r="O7">
-        <v>15.55052947750363</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>11.34972113081319</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>12.41893955465518</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.01123244443219</v>
+        <v>21.03959942308876</v>
       </c>
       <c r="C8">
-        <v>13.40418447436587</v>
+        <v>14.91983429184682</v>
       </c>
       <c r="D8">
-        <v>4.571339419090523</v>
+        <v>5.029109610345878</v>
       </c>
       <c r="E8">
-        <v>7.631946857647345</v>
+        <v>8.011834290418756</v>
       </c>
       <c r="F8">
-        <v>19.4020390397106</v>
+        <v>15.38837004288848</v>
       </c>
       <c r="G8">
-        <v>2.08555997173804</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
+        <v>18.01887883217499</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.50286066999018</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>7.89157963856809</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>12.54478929070619</v>
       </c>
       <c r="L8">
-        <v>6.129287340083745</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>12.19154896052192</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.115713645387094</v>
       </c>
       <c r="O8">
-        <v>15.60236731699623</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>12.19082679494759</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>12.35329743939653</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.33798375606246</v>
+        <v>24.23844595631627</v>
       </c>
       <c r="C9">
-        <v>14.60604325787349</v>
+        <v>16.26221478131679</v>
       </c>
       <c r="D9">
-        <v>4.810568794964444</v>
+        <v>5.538089062757718</v>
       </c>
       <c r="E9">
-        <v>7.289510859219317</v>
+        <v>7.696081250273547</v>
       </c>
       <c r="F9">
-        <v>20.51542559498155</v>
+        <v>16.10069303557126</v>
       </c>
       <c r="G9">
-        <v>2.071169955179964</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
+        <v>18.83761189884719</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.897812370996149</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>7.751126520028804</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>11.87131097542107</v>
       </c>
       <c r="L9">
-        <v>6.344311674071281</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>13.74001302182881</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>6.324998956868782</v>
       </c>
       <c r="O9">
-        <v>15.87097881132801</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>13.74265214305363</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>12.33902048717999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.53728613236465</v>
+        <v>26.34097091364407</v>
       </c>
       <c r="C10">
-        <v>15.43552244284445</v>
+        <v>17.21035276934722</v>
       </c>
       <c r="D10">
-        <v>4.979895324094706</v>
+        <v>5.887347414810953</v>
       </c>
       <c r="E10">
-        <v>7.049495974778436</v>
+        <v>7.475159656131393</v>
       </c>
       <c r="F10">
-        <v>21.4350900409591</v>
+        <v>16.66448201553769</v>
       </c>
       <c r="G10">
-        <v>2.061052674693666</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
+        <v>19.5119291213116</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.177268607434077</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>7.669170676792302</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>11.40208127312441</v>
       </c>
       <c r="L10">
-        <v>6.513238274821223</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>14.92447690986418</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>6.492630930136175</v>
       </c>
       <c r="O10">
-        <v>16.1814159056692</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>14.86939398870647</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>12.37749473190684</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.48593167014059</v>
+        <v>27.24330159754416</v>
       </c>
       <c r="C11">
-        <v>15.80041993401798</v>
+        <v>17.67098800047519</v>
       </c>
       <c r="D11">
-        <v>5.055353866154072</v>
+        <v>6.04723435272285</v>
       </c>
       <c r="E11">
-        <v>6.942599386835995</v>
+        <v>7.375386365814754</v>
       </c>
       <c r="F11">
-        <v>21.87516846922729</v>
+        <v>16.89665720979486</v>
       </c>
       <c r="G11">
-        <v>2.056535756722165</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
+        <v>19.77599740268513</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.306440879665742</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>7.626960228903727</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>11.17431047390703</v>
       </c>
       <c r="L11">
-        <v>6.592379743105953</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>15.43676176005431</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.574745414523122</v>
       </c>
       <c r="O11">
-        <v>16.34934583629125</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>15.35691480544512</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>12.38143306155958</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.83781556952202</v>
+        <v>27.57804529195479</v>
       </c>
       <c r="C12">
-        <v>15.9367569087564</v>
+        <v>17.82103146170792</v>
       </c>
       <c r="D12">
-        <v>5.083689927627874</v>
+        <v>6.102981536820628</v>
       </c>
       <c r="E12">
-        <v>6.902430402571573</v>
+        <v>7.338875677873558</v>
       </c>
       <c r="F12">
-        <v>22.0448998973368</v>
+        <v>17.00512354518926</v>
       </c>
       <c r="G12">
-        <v>2.054836442362943</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
+        <v>19.9130640839567</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.352623771478703</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>7.617640557993854</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>11.10065467701377</v>
       </c>
       <c r="L12">
-        <v>6.622671844608047</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>15.62698210791728</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.604463087682881</v>
       </c>
       <c r="O12">
-        <v>16.41693432769046</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>15.53683545119656</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>12.39964959611597</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.76235613803341</v>
+        <v>27.50640891530739</v>
       </c>
       <c r="C13">
-        <v>15.90747693428475</v>
+        <v>17.78433624065227</v>
       </c>
       <c r="D13">
-        <v>5.077598041070084</v>
+        <v>6.090246873402134</v>
       </c>
       <c r="E13">
-        <v>6.911068010125295</v>
+        <v>7.34690468421734</v>
       </c>
       <c r="F13">
-        <v>22.00820866518118</v>
+        <v>16.9854633289291</v>
       </c>
       <c r="G13">
-        <v>2.055201943680143</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
+        <v>19.89016911857277</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.34215908810557</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>7.620765821976004</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>11.11878966302264</v>
       </c>
       <c r="L13">
-        <v>6.616133640489352</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>15.5861816902848</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>6.59770075022506</v>
       </c>
       <c r="O13">
-        <v>16.40219782068821</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>15.49808482011047</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>12.39855936212907</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.51502800823284</v>
+        <v>27.27104428483136</v>
       </c>
       <c r="C14">
-        <v>15.81167363286087</v>
+        <v>17.68146352971065</v>
       </c>
       <c r="D14">
-        <v>5.057689937321289</v>
+        <v>6.0515104244825</v>
       </c>
       <c r="E14">
-        <v>6.939288548096003</v>
+        <v>7.372453112418007</v>
       </c>
       <c r="F14">
-        <v>21.88907079907775</v>
+        <v>16.90715838051023</v>
       </c>
       <c r="G14">
-        <v>2.056395736642851</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
+        <v>19.79009952483805</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.310012341583184</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>7.626667473410037</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>11.16921158211405</v>
       </c>
       <c r="L14">
-        <v>6.594865458303928</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>15.45248659971074</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>6.577035544439243</v>
       </c>
       <c r="O14">
-        <v>16.35482542778033</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>15.37172019922622</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>12.38413488441603</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.36257871390348</v>
+        <v>27.1256510821977</v>
       </c>
       <c r="C15">
-        <v>15.75275011706732</v>
+        <v>17.62709035754674</v>
       </c>
       <c r="D15">
-        <v>5.045464243901934</v>
+        <v>6.029196251762356</v>
       </c>
       <c r="E15">
-        <v>6.956614305028657</v>
+        <v>7.387786649407356</v>
       </c>
       <c r="F15">
-        <v>21.81649581942961</v>
+        <v>16.85190349284499</v>
       </c>
       <c r="G15">
-        <v>2.057128385084596</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
+        <v>19.71574819662762</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.291435951232772</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>7.628119618729712</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>11.19570199606224</v>
       </c>
       <c r="L15">
-        <v>6.581879940795497</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>15.3701048457737</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>6.565110726405086</v>
       </c>
       <c r="O15">
-        <v>16.32633341250098</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>15.29416335078935</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>12.36979276262793</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.4742558992736</v>
+        <v>26.27885427887193</v>
       </c>
       <c r="C16">
-        <v>15.41142042371402</v>
+        <v>17.25578346855647</v>
       </c>
       <c r="D16">
-        <v>4.974931223206775</v>
+        <v>5.889866911703024</v>
       </c>
       <c r="E16">
-        <v>7.056526387319723</v>
+        <v>7.478593125671029</v>
       </c>
       <c r="F16">
-        <v>21.40676345671094</v>
+        <v>16.58564392320323</v>
       </c>
       <c r="G16">
-        <v>2.061349489872609</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
+        <v>19.38036634214486</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.177477910169653</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>7.652816876516002</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>11.37897805040797</v>
       </c>
       <c r="L16">
-        <v>6.508111758600174</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>14.89046766089495</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>6.493149141549257</v>
       </c>
       <c r="O16">
-        <v>16.17099242688611</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>14.83993822410559</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>12.32859518130518</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.91609773588369</v>
+        <v>25.7458305363494</v>
       </c>
       <c r="C17">
-        <v>15.19879836413912</v>
+        <v>17.02476403229081</v>
       </c>
       <c r="D17">
-        <v>4.931249979256138</v>
+        <v>5.802800931875177</v>
       </c>
       <c r="E17">
-        <v>7.11839220998384</v>
+        <v>7.53490766524396</v>
       </c>
       <c r="F17">
-        <v>21.16093969000553</v>
+        <v>16.42512932845647</v>
       </c>
       <c r="G17">
-        <v>2.063960105252743</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
+        <v>19.17994787578084</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.107178784902902</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>7.669605745336859</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>11.49359457532437</v>
       </c>
       <c r="L17">
-        <v>6.463440031245092</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>14.58945993120401</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>6.449653115793251</v>
       </c>
       <c r="O17">
-        <v>16.08265234631177</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>14.55447421782704</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>12.30711434039478</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.59017506856562</v>
+        <v>25.43490464918415</v>
       </c>
       <c r="C18">
-        <v>15.07533553867985</v>
+        <v>16.86730792915516</v>
       </c>
       <c r="D18">
-        <v>4.905978667227492</v>
+        <v>5.748093636568938</v>
       </c>
       <c r="E18">
-        <v>7.154192257048958</v>
+        <v>7.568483475495196</v>
       </c>
       <c r="F18">
-        <v>21.02159505396094</v>
+        <v>16.35352292033308</v>
       </c>
       <c r="G18">
-        <v>2.065469781927927</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
+        <v>19.10198024198894</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.062984202775923</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>7.685663746523288</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>11.57167812750601</v>
       </c>
       <c r="L18">
-        <v>6.43796253048155</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>14.41382773822276</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6.423090325085723</v>
       </c>
       <c r="O18">
-        <v>16.0343471338095</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>14.3868598103581</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>12.31099450543809</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.47898113821027</v>
+        <v>25.32827218216625</v>
       </c>
       <c r="C19">
-        <v>15.03333433394266</v>
+        <v>16.83182541921024</v>
       </c>
       <c r="D19">
-        <v>4.897397404241725</v>
+        <v>5.732590238540842</v>
       </c>
       <c r="E19">
-        <v>7.16635126340716</v>
+        <v>7.579151076134566</v>
       </c>
       <c r="F19">
-        <v>20.9747681205296</v>
+        <v>16.31431745385165</v>
       </c>
       <c r="G19">
-        <v>2.065982360679331</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
+        <v>19.04870631068625</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.050695588688954</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>7.686712164069124</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>11.58945736352284</v>
       </c>
       <c r="L19">
-        <v>6.429373702406936</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>14.35393095821885</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.41551698423837</v>
       </c>
       <c r="O19">
-        <v>16.01841719086046</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>14.33038357288917</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>12.30106868599208</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.97601944032919</v>
+        <v>25.80313845625741</v>
       </c>
       <c r="C20">
-        <v>15.22155368024997</v>
+        <v>17.04765350054231</v>
       </c>
       <c r="D20">
-        <v>4.93591523625794</v>
+        <v>5.811814070588097</v>
       </c>
       <c r="E20">
-        <v>7.111784215460531</v>
+        <v>7.528963609929701</v>
       </c>
       <c r="F20">
-        <v>21.18689652110768</v>
+        <v>16.44364033585942</v>
       </c>
       <c r="G20">
-        <v>2.063681368468215</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
+        <v>19.20383297892482</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.114390672283608</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>7.668214202896579</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>11.48220788385694</v>
       </c>
       <c r="L20">
-        <v>6.468173061313605</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>14.62176120437829</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>6.454118505549165</v>
       </c>
       <c r="O20">
-        <v>16.091795798265</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>14.58505044448568</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>12.31042471273101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.58787282577076</v>
+        <v>27.33970210268704</v>
       </c>
       <c r="C21">
-        <v>15.83986373435802</v>
+        <v>17.73682771562359</v>
       </c>
       <c r="D21">
-        <v>5.063543995249929</v>
+        <v>6.067236615990111</v>
       </c>
       <c r="E21">
-        <v>6.930991219060284</v>
+        <v>7.363930760866262</v>
       </c>
       <c r="F21">
-        <v>21.92398110035758</v>
+        <v>16.90894752809509</v>
       </c>
       <c r="G21">
-        <v>2.05604479783769</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
+        <v>19.78145005256014</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.322737310628297</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>7.618409291051536</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>11.14137931067438</v>
       </c>
       <c r="L21">
-        <v>6.60110372729354</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>15.49185804392608</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>6.585040881240365</v>
       </c>
       <c r="O21">
-        <v>16.36863019007918</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>15.40990408327655</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>12.37188297465556</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.59853697323382</v>
+        <v>28.30069629903023</v>
       </c>
       <c r="C22">
-        <v>16.23321359306129</v>
+        <v>18.14458628120674</v>
       </c>
       <c r="D22">
-        <v>5.145562160594182</v>
+        <v>6.223413191562566</v>
       </c>
       <c r="E22">
-        <v>6.814632712926445</v>
+        <v>7.259300361763985</v>
       </c>
       <c r="F22">
-        <v>22.42366514367916</v>
+        <v>17.24891346025356</v>
       </c>
       <c r="G22">
-        <v>2.051118218682642</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
+        <v>20.22428522081721</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.453359118455148</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>7.599690047843833</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>10.94258766210831</v>
       </c>
       <c r="L22">
-        <v>6.689861348492538</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>16.03856204635435</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>6.670208602983328</v>
       </c>
       <c r="O22">
-        <v>16.57291874904782</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>15.9255250943568</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>12.44570795545043</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.06300448959131</v>
+        <v>27.79262532204061</v>
       </c>
       <c r="C23">
-        <v>16.02427360170736</v>
+        <v>17.89791191360489</v>
       </c>
       <c r="D23">
-        <v>5.101918924016583</v>
+        <v>6.135370307848363</v>
       </c>
       <c r="E23">
-        <v>6.876577083389574</v>
+        <v>7.31618260033266</v>
       </c>
       <c r="F23">
-        <v>22.15534339818449</v>
+        <v>17.09203308223442</v>
       </c>
       <c r="G23">
-        <v>2.053742140157356</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
+        <v>20.03186032650936</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.380227501134057</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>7.616988104475626</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>11.06371656796516</v>
       </c>
       <c r="L23">
-        <v>6.642319868312851</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>15.74876850205812</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>6.622233866495955</v>
       </c>
       <c r="O23">
-        <v>16.46170033517159</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>15.65120887176685</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>12.42487087982177</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.94894451331079</v>
+        <v>25.77860443373927</v>
       </c>
       <c r="C24">
-        <v>15.21126980879552</v>
+        <v>16.98814843247071</v>
       </c>
       <c r="D24">
-        <v>4.933806565901032</v>
+        <v>5.799240015338232</v>
       </c>
       <c r="E24">
-        <v>7.114770964019961</v>
+        <v>7.533676780523132</v>
       </c>
       <c r="F24">
-        <v>21.17515525892254</v>
+        <v>16.47662164412809</v>
       </c>
       <c r="G24">
-        <v>2.063807357875648</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
+        <v>19.26733029155719</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.10451480914203</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>7.681160728500173</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>11.5115929516285</v>
       </c>
       <c r="L24">
-        <v>6.466032619733446</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>14.60716583460568</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>6.448332104309136</v>
       </c>
       <c r="O24">
-        <v>16.08765432263524</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>14.56931643664109</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>12.34036312406774</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.48143549836461</v>
+        <v>23.41526605959658</v>
       </c>
       <c r="C25">
-        <v>14.28997938015327</v>
+        <v>15.95762643684975</v>
       </c>
       <c r="D25">
-        <v>4.746916045124864</v>
+        <v>5.413722858183871</v>
       </c>
       <c r="E25">
-        <v>7.380044991581197</v>
+        <v>7.777229604431459</v>
       </c>
       <c r="F25">
-        <v>20.19626487755095</v>
+        <v>15.85703401959559</v>
       </c>
       <c r="G25">
-        <v>2.074978727128712</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
+        <v>18.52474177679382</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.798448582673168</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>7.77304408639888</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>12.02478485834375</v>
       </c>
       <c r="L25">
-        <v>6.284189360212595</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>13.28002936104458</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>6.269829480786786</v>
       </c>
       <c r="O25">
-        <v>15.77922304167477</v>
+        <v>13.30811261907913</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>12.30240910123912</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_62/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_62/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1205 +421,1355 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.51141496971126</v>
+        <v>21.53533763639454</v>
       </c>
       <c r="C2">
-        <v>15.07735361026428</v>
+        <v>15.07888032537935</v>
       </c>
       <c r="D2">
-        <v>5.096552902884875</v>
+        <v>5.12895717591781</v>
       </c>
       <c r="E2">
-        <v>7.968386619724624</v>
+        <v>7.843482914264753</v>
       </c>
       <c r="F2">
-        <v>15.50839609202711</v>
+        <v>15.29268412499444</v>
       </c>
       <c r="G2">
-        <v>18.17118152365572</v>
+        <v>17.04806880046155</v>
       </c>
       <c r="I2">
-        <v>2.555864882171957</v>
+        <v>2.612117943793097</v>
       </c>
       <c r="J2">
-        <v>7.877227689943288</v>
+        <v>8.393690264501881</v>
       </c>
       <c r="K2">
-        <v>12.46300732540428</v>
+        <v>12.22121538144544</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>10.7426006368011</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>7.300522990887587</v>
       </c>
       <c r="N2">
-        <v>6.14061477019609</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>12.40695711561156</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>6.18109850595792</v>
       </c>
       <c r="Q2">
-        <v>12.36514158209004</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>12.41416304184524</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>12.19717860433515</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.11530548247314</v>
+        <v>20.14934495749706</v>
       </c>
       <c r="C3">
-        <v>14.50379219497535</v>
+        <v>14.40948960288759</v>
       </c>
       <c r="D3">
-        <v>4.878301598670746</v>
+        <v>4.893488931973229</v>
       </c>
       <c r="E3">
-        <v>8.101162279256252</v>
+        <v>7.97007109763556</v>
       </c>
       <c r="F3">
-        <v>15.25887322742342</v>
+        <v>15.0733974964738</v>
       </c>
       <c r="G3">
-        <v>17.9060033005509</v>
+        <v>16.83062011119624</v>
       </c>
       <c r="I3">
-        <v>2.55627515075088</v>
+        <v>2.484493066580525</v>
       </c>
       <c r="J3">
-        <v>7.946890655321767</v>
+        <v>8.433132856082755</v>
       </c>
       <c r="K3">
-        <v>12.75275427979473</v>
+        <v>12.50412258182888</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>10.96386090703488</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>7.543159477064683</v>
       </c>
       <c r="N3">
-        <v>6.061902988341581</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>11.76261472455061</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>6.100889487953544</v>
       </c>
       <c r="Q3">
-        <v>12.40288542249104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>11.76150380018737</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>12.24943876889339</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.20624567120976</v>
+        <v>19.24695878588856</v>
       </c>
       <c r="C4">
-        <v>14.14280016944316</v>
+        <v>13.98718519351455</v>
       </c>
       <c r="D4">
-        <v>4.739262694332843</v>
+        <v>4.743347643864627</v>
       </c>
       <c r="E4">
-        <v>8.185246469400818</v>
+        <v>8.050410364440609</v>
       </c>
       <c r="F4">
-        <v>15.11678405714731</v>
+        <v>14.94786860996892</v>
       </c>
       <c r="G4">
-        <v>17.76179061652768</v>
+        <v>16.71679650901453</v>
       </c>
       <c r="I4">
-        <v>2.665796408692314</v>
+        <v>2.582176210795521</v>
       </c>
       <c r="J4">
-        <v>7.993989624768074</v>
+        <v>8.45940647023542</v>
       </c>
       <c r="K4">
-        <v>12.93676525716182</v>
+        <v>12.68263255194167</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>11.10574108311513</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>7.711514306974157</v>
       </c>
       <c r="N4">
-        <v>6.016423867868933</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>11.35000958669192</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>6.054644876342798</v>
       </c>
       <c r="Q4">
-        <v>12.43601515512979</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>11.34297784046089</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>12.28962561569764</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.82243527014704</v>
+        <v>18.8660005967796</v>
       </c>
       <c r="C5">
-        <v>14.00265756553524</v>
+        <v>13.82164406239901</v>
       </c>
       <c r="D5">
-        <v>4.682988687883967</v>
+        <v>4.682403937986903</v>
       </c>
       <c r="E5">
-        <v>8.219704516442565</v>
+        <v>8.083402925926856</v>
       </c>
       <c r="F5">
-        <v>15.05431725943475</v>
+        <v>14.8917737917607</v>
       </c>
       <c r="G5">
-        <v>17.6944218321035</v>
+        <v>16.66187850885187</v>
       </c>
       <c r="I5">
-        <v>2.714599467451912</v>
+        <v>2.626655127043347</v>
       </c>
       <c r="J5">
-        <v>8.012257024898879</v>
+        <v>8.46870995935768</v>
       </c>
       <c r="K5">
-        <v>13.00947899282315</v>
+        <v>12.75294389201758</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>11.16111200785709</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>7.783446323869156</v>
       </c>
       <c r="N5">
-        <v>5.999268465223796</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>11.17837478915837</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>6.037200867251168</v>
       </c>
       <c r="Q5">
-        <v>12.44676059941736</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>11.16870917056324</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>12.30290773883095</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.75754721269553</v>
+        <v>18.8015958116254</v>
       </c>
       <c r="C6">
-        <v>13.9903514705086</v>
+        <v>13.80527381220675</v>
       </c>
       <c r="D6">
-        <v>4.675539832319937</v>
+        <v>4.674148855691742</v>
       </c>
       <c r="E6">
-        <v>8.224909961281826</v>
+        <v>8.08842627526721</v>
       </c>
       <c r="F6">
-        <v>15.03510398766409</v>
+        <v>14.87376558861953</v>
       </c>
       <c r="G6">
-        <v>17.66736409539112</v>
+        <v>16.6367387655798</v>
       </c>
       <c r="I6">
-        <v>2.72667137478658</v>
+        <v>2.63871579120763</v>
       </c>
       <c r="J6">
-        <v>8.012935259012719</v>
+        <v>8.46795283333528</v>
       </c>
       <c r="K6">
-        <v>13.0170226743602</v>
+        <v>12.76025447067332</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>11.16557913038494</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>7.794045447867191</v>
       </c>
       <c r="N6">
-        <v>5.997263036631838</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>11.15038737113832</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>6.035128984105401</v>
       </c>
       <c r="Q6">
-        <v>12.44238459885125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>11.14025602388562</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>12.29906714529793</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.20014638917414</v>
+        <v>19.24071421582366</v>
       </c>
       <c r="C7">
-        <v>14.17090122530375</v>
+        <v>14.01074066092572</v>
       </c>
       <c r="D7">
-        <v>4.743819817588679</v>
+        <v>4.751072355507189</v>
       </c>
       <c r="E7">
-        <v>8.184224476171881</v>
+        <v>8.049213232531486</v>
       </c>
       <c r="F7">
-        <v>15.09145484767518</v>
+        <v>14.90913525967045</v>
       </c>
       <c r="G7">
-        <v>17.71696081982063</v>
+        <v>16.75654557788655</v>
       </c>
       <c r="I7">
-        <v>2.676794659248825</v>
+        <v>2.595477123476059</v>
       </c>
       <c r="J7">
-        <v>7.98762700546277</v>
+        <v>8.420012669679751</v>
       </c>
       <c r="K7">
-        <v>12.92509109998238</v>
+        <v>12.6674861040172</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>11.08943152997193</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>7.705984970360602</v>
       </c>
       <c r="N7">
-        <v>6.018361870217693</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>11.34972113081319</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>6.056304694822733</v>
       </c>
       <c r="Q7">
-        <v>12.41893955465518</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>11.34255080010264</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>12.26338727830959</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.03959942308876</v>
+        <v>21.06637521476916</v>
       </c>
       <c r="C8">
-        <v>14.91983429184682</v>
+        <v>14.87464210292204</v>
       </c>
       <c r="D8">
-        <v>5.029109610345878</v>
+        <v>5.066075801993461</v>
       </c>
       <c r="E8">
-        <v>8.011834290418756</v>
+        <v>7.884051640597795</v>
       </c>
       <c r="F8">
-        <v>15.38837004288848</v>
+        <v>15.13865194937757</v>
       </c>
       <c r="G8">
-        <v>18.01887883217499</v>
+        <v>17.19004756345863</v>
       </c>
       <c r="I8">
-        <v>2.50286066999018</v>
+        <v>2.564892104985305</v>
       </c>
       <c r="J8">
-        <v>7.89157963856809</v>
+        <v>8.290117421268409</v>
       </c>
       <c r="K8">
-        <v>12.54478929070619</v>
+        <v>12.28886982532736</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>10.79038077529522</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>7.363807322317371</v>
       </c>
       <c r="N8">
-        <v>6.115713645387094</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>12.19082679494759</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>6.154844870469465</v>
       </c>
       <c r="Q8">
-        <v>12.35329743939653</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>12.19501404455601</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>12.1595418878556</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.23844595631627</v>
+        <v>24.24191062270735</v>
       </c>
       <c r="C9">
-        <v>16.26221478131679</v>
+        <v>16.43743936256832</v>
       </c>
       <c r="D9">
-        <v>5.538089062757718</v>
+        <v>5.616779118455625</v>
       </c>
       <c r="E9">
-        <v>7.696081250273547</v>
+        <v>7.583767080691409</v>
       </c>
       <c r="F9">
-        <v>16.10069303557126</v>
+        <v>15.75452261647822</v>
       </c>
       <c r="G9">
-        <v>18.83761189884719</v>
+        <v>17.96170038990955</v>
       </c>
       <c r="I9">
-        <v>2.897812370996149</v>
+        <v>2.916424483261411</v>
       </c>
       <c r="J9">
-        <v>7.751126520028804</v>
+        <v>8.180444799123876</v>
       </c>
       <c r="K9">
-        <v>11.87131097542107</v>
+        <v>11.62014985654409</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>10.28697151934436</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>6.875329756143842</v>
       </c>
       <c r="N9">
-        <v>6.324998956868782</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>13.74265214305363</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>6.368483030071998</v>
       </c>
       <c r="Q9">
-        <v>12.33902048717999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>13.7610896845844</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>12.08916552058497</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.34097091364407</v>
+        <v>26.32775371128674</v>
       </c>
       <c r="C10">
-        <v>17.21035276934722</v>
+        <v>17.51000399007403</v>
       </c>
       <c r="D10">
-        <v>5.887347414810953</v>
+        <v>6.009854506856097</v>
       </c>
       <c r="E10">
-        <v>7.475159656131393</v>
+        <v>7.3733156406472</v>
       </c>
       <c r="F10">
-        <v>16.66448201553769</v>
+        <v>16.16586164369839</v>
       </c>
       <c r="G10">
-        <v>19.5119291213116</v>
+        <v>19.06485332249678</v>
       </c>
       <c r="I10">
-        <v>3.177268607434077</v>
+        <v>3.164349052994817</v>
       </c>
       <c r="J10">
-        <v>7.669170676792302</v>
+        <v>7.924718328882576</v>
       </c>
       <c r="K10">
-        <v>11.40208127312441</v>
+        <v>11.12367108916615</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>9.928872593381918</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>6.604526525952783</v>
       </c>
       <c r="N10">
-        <v>6.492630930136175</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>14.86939398870647</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>6.538523956438269</v>
       </c>
       <c r="Q10">
-        <v>12.37749473190684</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>14.88188404363137</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>12.02143864031792</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.24330159754416</v>
+        <v>27.22144195712615</v>
       </c>
       <c r="C11">
-        <v>17.67098800047519</v>
+        <v>17.98578627608351</v>
       </c>
       <c r="D11">
-        <v>6.04723435272285</v>
+        <v>6.216747298560613</v>
       </c>
       <c r="E11">
-        <v>7.375386365814754</v>
+        <v>7.276642061727063</v>
       </c>
       <c r="F11">
-        <v>16.89665720979486</v>
+        <v>16.1989566754821</v>
       </c>
       <c r="G11">
-        <v>19.77599740268513</v>
+        <v>20.319332179807</v>
       </c>
       <c r="I11">
-        <v>3.306440879665742</v>
+        <v>3.277899614114234</v>
       </c>
       <c r="J11">
-        <v>7.626960228903727</v>
+        <v>7.5141097356791</v>
       </c>
       <c r="K11">
-        <v>11.17431047390703</v>
+        <v>10.84415591221595</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>9.740923889383916</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>6.446213190926557</v>
       </c>
       <c r="N11">
-        <v>6.574745414523122</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>15.35691480544512</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>6.619386037118032</v>
       </c>
       <c r="Q11">
-        <v>12.38143306155958</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>15.36379321064682</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>11.87801383673149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.57804529195479</v>
+        <v>27.55280804738714</v>
       </c>
       <c r="C12">
-        <v>17.82103146170792</v>
+        <v>18.13658582302227</v>
       </c>
       <c r="D12">
-        <v>6.102981536820628</v>
+        <v>6.293527395692501</v>
       </c>
       <c r="E12">
-        <v>7.338875677873558</v>
+        <v>7.240843077197494</v>
       </c>
       <c r="F12">
-        <v>17.00512354518926</v>
+        <v>16.21548518919676</v>
       </c>
       <c r="G12">
-        <v>19.9130640839567</v>
+        <v>20.9278195904673</v>
       </c>
       <c r="I12">
-        <v>3.352623771478703</v>
+        <v>3.317023433852379</v>
       </c>
       <c r="J12">
-        <v>7.617640557993854</v>
+        <v>7.343055493880013</v>
       </c>
       <c r="K12">
-        <v>11.10065467701377</v>
+        <v>10.74383251549322</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>9.675252477421846</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>6.393511247294382</v>
       </c>
       <c r="N12">
-        <v>6.604463087682881</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>15.53683545119656</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>6.64836851606457</v>
       </c>
       <c r="Q12">
-        <v>12.39964959611597</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>15.54129943654496</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>11.82683454802535</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.50640891530739</v>
+        <v>27.48189875249319</v>
       </c>
       <c r="C13">
-        <v>17.78433624065227</v>
+        <v>18.09991849147075</v>
       </c>
       <c r="D13">
-        <v>6.090246873402134</v>
+        <v>6.276127125899114</v>
       </c>
       <c r="E13">
-        <v>7.34690468421734</v>
+        <v>7.248660556553091</v>
       </c>
       <c r="F13">
-        <v>16.9854633289291</v>
+        <v>16.21621960089347</v>
       </c>
       <c r="G13">
-        <v>19.89016911857277</v>
+        <v>20.79906709946792</v>
       </c>
       <c r="I13">
-        <v>3.34215908810557</v>
+        <v>3.307893390328992</v>
       </c>
       <c r="J13">
-        <v>7.620765821976004</v>
+        <v>7.381209263743925</v>
       </c>
       <c r="K13">
-        <v>11.11878966302264</v>
+        <v>10.76757780830791</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>9.69049125637382</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>6.407036930513785</v>
       </c>
       <c r="N13">
-        <v>6.59770075022506</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>15.49808482011047</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>6.641786839276223</v>
       </c>
       <c r="Q13">
-        <v>12.39855936212907</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>15.50308444592975</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>11.84111846740561</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.27104428483136</v>
+        <v>27.2489068083147</v>
       </c>
       <c r="C14">
-        <v>17.68146352971065</v>
+        <v>17.99640952729974</v>
       </c>
       <c r="D14">
-        <v>6.0515104244825</v>
+        <v>6.222692773444959</v>
       </c>
       <c r="E14">
-        <v>7.372453112418007</v>
+        <v>7.273742751498825</v>
       </c>
       <c r="F14">
-        <v>16.90715838051023</v>
+        <v>16.20216479411463</v>
       </c>
       <c r="G14">
-        <v>19.79009952483805</v>
+        <v>20.37026995867934</v>
       </c>
       <c r="I14">
-        <v>3.310012341583184</v>
+        <v>3.280810562266276</v>
       </c>
       <c r="J14">
-        <v>7.626667473410037</v>
+        <v>7.500666544054319</v>
       </c>
       <c r="K14">
-        <v>11.16921158211405</v>
+        <v>10.83682112556427</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>9.736002282302136</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>6.442795474478731</v>
       </c>
       <c r="N14">
-        <v>6.577035544439243</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>15.37172019922622</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>6.621625478531054</v>
       </c>
       <c r="Q14">
-        <v>12.38413488441603</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>15.37840703779387</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>11.87520456426427</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.1256510821977</v>
+        <v>27.10496339916586</v>
       </c>
       <c r="C15">
-        <v>17.62709035754674</v>
+        <v>17.94107598424586</v>
       </c>
       <c r="D15">
-        <v>6.029196251762356</v>
+        <v>6.191776145121584</v>
       </c>
       <c r="E15">
-        <v>7.387786649407356</v>
+        <v>7.288900469041034</v>
       </c>
       <c r="F15">
-        <v>16.85190349284499</v>
+        <v>16.184410021033</v>
       </c>
       <c r="G15">
-        <v>19.71574819662762</v>
+        <v>20.10720425918554</v>
       </c>
       <c r="I15">
-        <v>3.291435951232772</v>
+        <v>3.265709530010815</v>
       </c>
       <c r="J15">
-        <v>7.628119618729712</v>
+        <v>7.570125779379445</v>
       </c>
       <c r="K15">
-        <v>11.19570199606224</v>
+        <v>10.87478989759082</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>9.76156875634053</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>6.460382376975018</v>
       </c>
       <c r="N15">
-        <v>6.565110726405086</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>15.29416335078935</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>6.609952460738085</v>
       </c>
       <c r="Q15">
-        <v>12.36979276262793</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>15.30183951206266</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>11.88916375621951</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.27885427887193</v>
+        <v>26.26624045344789</v>
       </c>
       <c r="C16">
-        <v>17.25578346855647</v>
+        <v>17.55434523094992</v>
       </c>
       <c r="D16">
-        <v>5.889866911703024</v>
+        <v>6.00958224882373</v>
       </c>
       <c r="E16">
-        <v>7.478593125671029</v>
+        <v>7.377575495962259</v>
       </c>
       <c r="F16">
-        <v>16.58564392320323</v>
+        <v>16.09979412034704</v>
       </c>
       <c r="G16">
-        <v>19.38036634214486</v>
+        <v>18.88219472396332</v>
       </c>
       <c r="I16">
-        <v>3.177477910169653</v>
+        <v>3.168655929438095</v>
       </c>
       <c r="J16">
-        <v>7.652816876516002</v>
+        <v>7.931925166767209</v>
       </c>
       <c r="K16">
-        <v>11.37897805040797</v>
+        <v>11.10814186002272</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>9.920331364984779</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>6.582197766144612</v>
       </c>
       <c r="N16">
-        <v>6.493149141549257</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>14.83993822410559</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>6.538944994660806</v>
       </c>
       <c r="Q16">
-        <v>12.32859518130518</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>14.85270034101599</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>11.98267612780561</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.7458305363494</v>
+        <v>25.73797316570756</v>
       </c>
       <c r="C17">
-        <v>17.02476403229081</v>
+        <v>17.30518255695848</v>
       </c>
       <c r="D17">
-        <v>5.802800931875177</v>
+        <v>5.901833323245127</v>
       </c>
       <c r="E17">
-        <v>7.53490766524396</v>
+        <v>7.432177925804015</v>
       </c>
       <c r="F17">
-        <v>16.42512932845647</v>
+        <v>16.0229299920453</v>
       </c>
       <c r="G17">
-        <v>19.17994787578084</v>
+        <v>18.30478037001125</v>
       </c>
       <c r="I17">
-        <v>3.107178784902902</v>
+        <v>3.108214201155681</v>
       </c>
       <c r="J17">
-        <v>7.669605745336859</v>
+        <v>8.100748921795965</v>
       </c>
       <c r="K17">
-        <v>11.49359457532437</v>
+        <v>11.24395424819607</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>10.01560838690368</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>6.654085578590893</v>
       </c>
       <c r="N17">
-        <v>6.449653115793251</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>14.55447421782704</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>6.495534307746678</v>
       </c>
       <c r="Q17">
-        <v>12.30711434039478</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>14.5697807834623</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>12.02186887150362</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.43490464918415</v>
+        <v>25.42968830562462</v>
       </c>
       <c r="C18">
-        <v>16.86730792915516</v>
+        <v>17.13386374992471</v>
       </c>
       <c r="D18">
-        <v>5.748093636568938</v>
+        <v>5.837328344211818</v>
       </c>
       <c r="E18">
-        <v>7.568483475495196</v>
+        <v>7.464274743762485</v>
       </c>
       <c r="F18">
-        <v>16.35352292033308</v>
+        <v>15.98888434944749</v>
       </c>
       <c r="G18">
-        <v>19.10198024198894</v>
+        <v>18.07046993235475</v>
       </c>
       <c r="I18">
-        <v>3.062984202775923</v>
+        <v>3.068354171694378</v>
       </c>
       <c r="J18">
-        <v>7.685663746523288</v>
+        <v>8.180505800859223</v>
       </c>
       <c r="K18">
-        <v>11.57167812750601</v>
+        <v>11.3296351848969</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>10.07618521310888</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>6.704077180445831</v>
       </c>
       <c r="N18">
-        <v>6.423090325085723</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>14.3868598103581</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>6.468890710732129</v>
       </c>
       <c r="Q18">
-        <v>12.31099450543809</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>14.40342754250791</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>12.0522992216005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.32827218216625</v>
+        <v>25.32394743734215</v>
       </c>
       <c r="C19">
-        <v>16.83182541921024</v>
+        <v>17.09330155195056</v>
       </c>
       <c r="D19">
-        <v>5.732590238540842</v>
+        <v>5.81881140377213</v>
       </c>
       <c r="E19">
-        <v>7.579151076134566</v>
+        <v>7.474651569228909</v>
       </c>
       <c r="F19">
-        <v>16.31431745385165</v>
+        <v>15.96114941574817</v>
       </c>
       <c r="G19">
-        <v>19.04870631068625</v>
+        <v>17.97459213714007</v>
       </c>
       <c r="I19">
-        <v>3.050695588688954</v>
+        <v>3.05834762278687</v>
       </c>
       <c r="J19">
-        <v>7.686712164069124</v>
+        <v>8.199503176965642</v>
       </c>
       <c r="K19">
-        <v>11.58945736352284</v>
+        <v>11.35041409234498</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>10.09129619651792</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>6.713742183918627</v>
       </c>
       <c r="N19">
-        <v>6.41551698423837</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>14.33038357288917</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>6.461228959996379</v>
       </c>
       <c r="Q19">
-        <v>12.30106868599208</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>14.34732785738811</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>12.050544540052</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.80313845625741</v>
+        <v>25.7947816839784</v>
       </c>
       <c r="C20">
-        <v>17.04765350054231</v>
+        <v>17.33031986943501</v>
       </c>
       <c r="D20">
-        <v>5.811814070588097</v>
+        <v>5.912840750202567</v>
       </c>
       <c r="E20">
-        <v>7.528963609929701</v>
+        <v>7.426409309601306</v>
       </c>
       <c r="F20">
-        <v>16.44364033585942</v>
+        <v>16.03352917002088</v>
       </c>
       <c r="G20">
-        <v>19.20383297892482</v>
+        <v>18.36247877776811</v>
       </c>
       <c r="I20">
-        <v>3.114390672283608</v>
+        <v>3.114308398903634</v>
       </c>
       <c r="J20">
-        <v>7.668214202896579</v>
+        <v>8.085461228339144</v>
       </c>
       <c r="K20">
-        <v>11.48220788385694</v>
+        <v>11.23055459601559</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>10.00608007360853</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>6.647251369213839</v>
       </c>
       <c r="N20">
-        <v>6.454118505549165</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>14.58505044448568</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>6.50001199676931</v>
       </c>
       <c r="Q20">
-        <v>12.31042471273101</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>14.60010989285067</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>12.01947864579051</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.33970210268704</v>
+        <v>27.31646801092956</v>
       </c>
       <c r="C21">
-        <v>17.73682771562359</v>
+        <v>18.03861425368821</v>
       </c>
       <c r="D21">
-        <v>6.067236615990111</v>
+        <v>6.252610385551065</v>
       </c>
       <c r="E21">
-        <v>7.363930760866262</v>
+        <v>7.264893007940524</v>
       </c>
       <c r="F21">
-        <v>16.90894752809509</v>
+        <v>16.13989148099095</v>
       </c>
       <c r="G21">
-        <v>19.78145005256014</v>
+        <v>20.74052564405985</v>
       </c>
       <c r="I21">
-        <v>3.322737310628297</v>
+        <v>3.292036309281542</v>
       </c>
       <c r="J21">
-        <v>7.618409291051536</v>
+        <v>7.370125820381392</v>
       </c>
       <c r="K21">
-        <v>11.14137931067438</v>
+        <v>10.79169720342721</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>9.708482329261352</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>6.406244393853227</v>
       </c>
       <c r="N21">
-        <v>6.585040881240365</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>15.40990408327655</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>6.6286049810097</v>
       </c>
       <c r="Q21">
-        <v>12.37188297465556</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>15.41509401643769</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>11.81519813303782</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.30069629903023</v>
+        <v>28.26792100811554</v>
       </c>
       <c r="C22">
-        <v>18.14458628120674</v>
+        <v>18.45334223118299</v>
       </c>
       <c r="D22">
-        <v>6.223413191562566</v>
+        <v>6.465987740520411</v>
       </c>
       <c r="E22">
-        <v>7.259300361763985</v>
+        <v>7.162708274023766</v>
       </c>
       <c r="F22">
-        <v>17.24891346025356</v>
+        <v>16.22771522333114</v>
       </c>
       <c r="G22">
-        <v>20.22428522081721</v>
+        <v>22.45042276265137</v>
       </c>
       <c r="I22">
-        <v>3.453359118455148</v>
+        <v>3.401795763902856</v>
       </c>
       <c r="J22">
-        <v>7.599690047843833</v>
+        <v>6.958880463763712</v>
       </c>
       <c r="K22">
-        <v>10.94258766210831</v>
+        <v>10.5163111444456</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>9.531341586506876</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>6.273461670297033</v>
       </c>
       <c r="N22">
-        <v>6.670208602983328</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>15.9255250943568</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>6.711921538269476</v>
       </c>
       <c r="Q22">
-        <v>12.44570795545043</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>15.92417902764711</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>11.69590799026335</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.79262532204061</v>
+        <v>27.76517196826924</v>
       </c>
       <c r="C23">
-        <v>17.89791191360489</v>
+        <v>18.21256998719146</v>
       </c>
       <c r="D23">
-        <v>6.135370307848363</v>
+        <v>6.340408049133421</v>
       </c>
       <c r="E23">
-        <v>7.31618260033266</v>
+        <v>7.218318053707118</v>
       </c>
       <c r="F23">
-        <v>17.09203308223442</v>
+        <v>16.2379921540885</v>
       </c>
       <c r="G23">
-        <v>20.03186032650936</v>
+        <v>21.37780384159881</v>
       </c>
       <c r="I23">
-        <v>3.380227501134057</v>
+        <v>3.33919625463359</v>
       </c>
       <c r="J23">
-        <v>7.616988104475626</v>
+        <v>7.233006493342023</v>
       </c>
       <c r="K23">
-        <v>11.06371656796516</v>
+        <v>10.6862576261778</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>9.637353049555486</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>6.367767949558806</v>
       </c>
       <c r="N23">
-        <v>6.622233866495955</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>15.65120887176685</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>6.665613169789018</v>
       </c>
       <c r="Q23">
-        <v>12.42487087982177</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>15.65404625009914</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>11.80281987450736</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.77860443373927</v>
+        <v>25.77044128911584</v>
       </c>
       <c r="C24">
-        <v>16.98814843247071</v>
+        <v>17.26937847994407</v>
       </c>
       <c r="D24">
-        <v>5.799240015338232</v>
+        <v>5.899475322500006</v>
       </c>
       <c r="E24">
-        <v>7.533676780523132</v>
+        <v>7.430371539572111</v>
       </c>
       <c r="F24">
-        <v>16.47662164412809</v>
+        <v>16.06889047023301</v>
       </c>
       <c r="G24">
-        <v>19.26733029155719</v>
+        <v>18.41028311426252</v>
       </c>
       <c r="I24">
-        <v>3.10451480914203</v>
+        <v>3.10275026163241</v>
       </c>
       <c r="J24">
-        <v>7.681160728500173</v>
+        <v>8.103158956416447</v>
       </c>
       <c r="K24">
-        <v>11.5115929516285</v>
+        <v>11.25802396198065</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>10.0243577280084</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>6.670444993076598</v>
       </c>
       <c r="N24">
-        <v>6.448332104309136</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>14.56931643664109</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>6.494309757322698</v>
       </c>
       <c r="Q24">
-        <v>12.34036312406774</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>14.58452187164781</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>12.05066930808006</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.41526605959658</v>
+        <v>23.42502086092772</v>
       </c>
       <c r="C25">
-        <v>15.95762643684975</v>
+        <v>16.0823042468249</v>
       </c>
       <c r="D25">
-        <v>5.413722858183871</v>
+        <v>5.477302889711579</v>
       </c>
       <c r="E25">
-        <v>7.777229604431459</v>
+        <v>7.661634135667386</v>
       </c>
       <c r="F25">
-        <v>15.85703401959559</v>
+        <v>15.55849061163531</v>
       </c>
       <c r="G25">
-        <v>18.52474177679382</v>
+        <v>17.5442953423415</v>
       </c>
       <c r="I25">
-        <v>2.798448582673168</v>
+        <v>2.830834969679977</v>
       </c>
       <c r="J25">
-        <v>7.77304408639888</v>
+        <v>8.24348133785127</v>
       </c>
       <c r="K25">
-        <v>12.02478485834375</v>
+        <v>11.78151439742093</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>10.40608196819927</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>6.976176969512152</v>
       </c>
       <c r="N25">
-        <v>6.269829480786786</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>13.30811261907913</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>6.312256695946934</v>
       </c>
       <c r="Q25">
-        <v>12.30240910123912</v>
+        <v>13.32666310174936</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>12.08423772961368</v>
       </c>
     </row>
   </sheetData>
